--- a/dashboard-vendas-excel-dio.xlsx
+++ b/dashboard-vendas-excel-dio.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guili\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF02F764-911E-46DC-A1E7-B0C254E642F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61247EF-8D82-42F3-835C-DF115377ACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="4" activeTab="4" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Gráfico1" sheetId="11" r:id="rId4"/>
-    <sheet name="D̳ashboard" sheetId="4" r:id="rId5"/>
+    <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Subscription_Type">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId6"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="326">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -1012,9 +1011,6 @@
   </si>
   <si>
     <t>(Tudo)</t>
-  </si>
-  <si>
-    <t>(Vários itens)</t>
   </si>
   <si>
     <t>Qual o total de vendas por plano?</t>
@@ -1044,7 +1040,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1167,7 +1163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1194,12 +1190,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1207,80 +1202,6 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF25282C"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="7"/>
-        </left>
-        <right style="thin">
-          <color theme="7"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF107C10"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1323,19 +1244,93 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF107C10"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF107C10"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF25282C"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="0" xr9:uid="{66AA2B5B-AA03-44AC-A821-471ECCF8721A}"/>
     <tableStyle name="Estilo de Segmentação de Dados 2" pivot="0" table="0" count="8" xr9:uid="{6D5ABBEB-4C5B-42C3-9039-293D4D69D336}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 3" pivot="0" table="0" count="1" xr9:uid="{25C85C4B-E54D-43D8-8E7B-1FF3318D55D6}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
     </tableStyle>
     <tableStyle name="SlicerStyleLight4 2" pivot="0" table="0" count="10" xr9:uid="{D6875A57-7DB3-42B6-8E15-25A317C69050}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1355,62 +1350,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
       <x14:dxfs count="14">
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF92D050"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF92D050"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF107C10"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF92D050"/>
-            </patternFill>
-          </fill>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF107C10"/>
-            </patternFill>
-          </fill>
-        </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor rgb="FF107C10"/>
-            </patternFill>
-          </fill>
-        </dxf>
         <dxf>
           <font>
             <color rgb="FF000000"/>
@@ -1643,6 +1582,62 @@
             <horizontal/>
           </border>
         </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF92D050"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF92D050"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF107C10"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF92D050"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF107C10"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF107C10"/>
+            </patternFill>
+          </fill>
+        </dxf>
       </x14:dxfs>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1650,25 +1645,25 @@
         <x14:slicerStyle name="Estilo de Segmentação de Dados 1"/>
         <x14:slicerStyle name="Estilo de Segmentação de Dados 2">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="5"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="4"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="3"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="2"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="1"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="13"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="12"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="11"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="10"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="9"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="8"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
         <x14:slicerStyle name="Estilo de Segmentação de Dados 3"/>
         <x14:slicerStyle name="SlicerStyleLight4 2">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="13"/>
-            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="12"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="11"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="10"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="9"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="8"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="7"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
       </x14:slicerStyles>
@@ -1744,8 +1739,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1790,6 +1784,34 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1823,6 +1845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0911-4918-9468-1EAB73DCEAD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1838,6 +1865,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0911-4918-9468-1EAB73DCEAD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1916,10 +1948,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.49830508474576274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.50169491525423726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,222 +2074,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="327211519"/>
-        <c:axId val="327211039"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="327211519"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="327211039"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="327211039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="327211519"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2568,13 +2384,13 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>252</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>843</c:v>
+                  <c:v>1801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2967</c:v>
+                  <c:v>5388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3095,10 +2911,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.49830508474576274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.50169491525423726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,46 +3082,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3865,509 +3641,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4885,7 +4158,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5402,17 +4675,6 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{22ADB863-D842-4765-9C5B-5AAA349A0FA9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="152" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6193,39 +5455,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9637796" cy="6009523"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D2BDB0-613E-5C2A-033C-C22C1C240991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6296,8 +5525,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="249012" y="1323975"/>
-          <a:ext cx="11295288" cy="2733675"/>
+          <a:off x="249012" y="1319893"/>
+          <a:ext cx="11330667" cy="2735036"/>
           <a:chOff x="3049362" y="1771650"/>
           <a:chExt cx="6078625" cy="2952750"/>
         </a:xfrm>
@@ -6395,8 +5624,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Subscription Type">
@@ -6419,7 +5648,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6486,8 +5715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="258856" y="5817534"/>
-          <a:ext cx="4038601" cy="1304925"/>
+          <a:off x="258856" y="5814813"/>
+          <a:ext cx="4046765" cy="1304925"/>
           <a:chOff x="8353425" y="2876550"/>
           <a:chExt cx="4038600" cy="1304925"/>
         </a:xfrm>
@@ -6550,7 +5779,8 @@
                 <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>R$ 1.590,00</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>R$ 2.940,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="6600">
               <a:solidFill>
@@ -6696,8 +5926,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="405653" y="4335556"/>
-          <a:ext cx="4006663" cy="1061757"/>
+          <a:off x="405653" y="4332835"/>
+          <a:ext cx="4014827" cy="1061757"/>
           <a:chOff x="8334935" y="1608044"/>
           <a:chExt cx="3978649" cy="1061757"/>
         </a:xfrm>
@@ -6779,7 +6009,8 @@
                   <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                   <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 </a:rPr>
-                <a:t>R$ 2.080,00</a:t>
+                <a:pPr algn="ctr"/>
+                <a:t>R$ 3.880,00</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="16600">
                 <a:solidFill>
@@ -7088,8 +6319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6010277" y="5181596"/>
-          <a:ext cx="2114550" cy="990603"/>
+          <a:off x="6026606" y="5178875"/>
+          <a:ext cx="2119992" cy="990603"/>
           <a:chOff x="9488979" y="2503311"/>
           <a:chExt cx="2520929" cy="995309"/>
         </a:xfrm>
@@ -7152,7 +6383,8 @@
                 <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>76,92%</a:t>
+              <a:pPr algn="ctr"/>
+              <a:t>50,17%</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="49600" b="1">
               <a:solidFill>
@@ -7316,6 +6548,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>557894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAC7FAA-E7D6-CEBC-6AC8-73347B89C9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1850571" y="136072"/>
+          <a:ext cx="8667750" cy="612322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="3600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>GAME PASS SALES REPORT</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="3600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11837,7 +11144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A428E878-AF96-47D2-8C74-DFE73B768084}" name="Tabela dinâmica10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A428E878-AF96-47D2-8C74-DFE73B768084}" name="Tabela dinâmica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A52:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11862,7 +11169,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -11944,7 +11251,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAE73957-BC8A-4560-9602-EAD5C7F3EBF6}" name="tblEapass" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAE73957-BC8A-4560-9602-EAD5C7F3EBF6}" name="tblEapass" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A37:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -11969,7 +11276,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -12051,7 +11358,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{403D9BC7-58A6-49CE-ADAE-7FE8B406EA49}" name="autorenewalpercentage" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{403D9BC7-58A6-49CE-ADAE-7FE8B406EA49}" name="autorenewalpercentage" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A25:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -12076,7 +11383,7 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -12111,7 +11418,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Auto Renewal" fld="4" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="6">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12154,6 +11461,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12168,7 +11499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8F1AA65-6126-4D06-906C-A9C928F4ACD9}" name="Tabela dinâmica4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8F1AA65-6126-4D06-906C-A9C928F4ACD9}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A12:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -12187,7 +11518,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -12285,7 +11616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13DB8A9B-EFD0-4CBC-BE4D-3464A2BAA5D0}" name="Tabela dinâmica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13DB8A9B-EFD0-4CBC-BE4D-3464A2BAA5D0}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -12335,7 +11666,7 @@
     <tabular pivotCacheId="419054821">
       <items count="3">
         <i x="1" s="1"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -12350,22 +11681,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12866,7 +12197,7 @@
   </sheetPr>
   <dimension ref="A1:Q296"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -13132,7 +12463,7 @@
       <c r="M6" s="11">
         <v>4</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -13174,7 +12505,7 @@
       <c r="M7" s="11">
         <v>28</v>
       </c>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -25083,7 +24414,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -25091,7 +24422,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -25107,7 +24438,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="14">
-        <v>252</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -25115,7 +24446,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="14">
-        <v>843</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -25123,7 +24454,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="14">
-        <v>2967</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -25131,12 +24462,12 @@
         <v>314</v>
       </c>
       <c r="B16" s="14">
-        <v>4062</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -25152,41 +24483,41 @@
         <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="B26" s="17">
+        <v>0.49830508474576274</v>
+      </c>
+      <c r="H26" s="17">
         <f>GETPIVOTDATA("Auto Renewal",$A$25,"Auto Renewal","Yes")</f>
-        <v>0.76923076923076927</v>
+        <v>0.50169491525423726</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="18">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="D27" s="18"/>
+      <c r="B27" s="17">
+        <v>0.50169491525423726</v>
+      </c>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -25194,7 +24525,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -25202,14 +24533,14 @@
         <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="20">
         <v>0</v>
       </c>
     </row>
@@ -25217,7 +24548,7 @@
       <c r="A39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>0</v>
       </c>
     </row>
@@ -25225,26 +24556,26 @@
       <c r="A40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="19">
-        <v>1590</v>
+      <c r="B40" s="20">
+        <v>2940</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="19">
-        <v>1590</v>
-      </c>
-      <c r="D41" s="21">
+      <c r="B41" s="20">
+        <v>2940</v>
+      </c>
+      <c r="D41" s="19">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$A$37)</f>
-        <v>1590</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -25252,7 +24583,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -25260,7 +24591,7 @@
         <v>313</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -25276,7 +24607,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="14">
-        <v>1020</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -25284,7 +24615,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="14">
-        <v>1060</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -25292,11 +24623,11 @@
         <v>314</v>
       </c>
       <c r="B56" s="14">
-        <v>2080</v>
-      </c>
-      <c r="D56" s="21">
+        <v>3880</v>
+      </c>
+      <c r="D56" s="19">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$A$52)</f>
-        <v>2080</v>
+        <v>3880</v>
       </c>
     </row>
   </sheetData>
@@ -25307,10 +24638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
-  <dimension ref="A2:AI27"/>
+  <dimension ref="A2:AI7"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y40" sqref="X39:Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25326,232 +24657,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-    </row>
-    <row r="3" spans="1:35" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-    </row>
-    <row r="4" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-    </row>
-    <row r="5" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-    </row>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+    </row>
+    <row r="3" spans="1:35" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-    </row>
-    <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="R21" s="16"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q27" s="16"/>
-    </row>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -25566,6 +24714,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
@@ -25574,15 +24731,6 @@
     <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25841,20 +24989,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
     <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
